--- a/output/fit_clients/fit_round_427.xlsx
+++ b/output/fit_clients/fit_round_427.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2466895776.569222</v>
+        <v>1735573190.72366</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08502250933431503</v>
+        <v>0.08704504619386158</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02904031479158812</v>
+        <v>0.03197797658443093</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1233447946.697659</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1816678156.408962</v>
+        <v>2513275942.103096</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1321470787320563</v>
+        <v>0.1123466894242742</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04488373327129009</v>
+        <v>0.04225915037654043</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>908339089.8965622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5025598012.991751</v>
+        <v>4784089846.978998</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1228423275315566</v>
+        <v>0.1115875665786137</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03161695753653541</v>
+        <v>0.02494390057288939</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>154</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2512799093.343958</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2563576380.725424</v>
+        <v>4237001026.499743</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1081407546044314</v>
+        <v>0.07327707347168419</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03505335604633288</v>
+        <v>0.03328521652102907</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>158</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1281788289.078249</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2652419460.787169</v>
+        <v>2736035808.356583</v>
       </c>
       <c r="F6" t="n">
-        <v>0.122721692801161</v>
+        <v>0.110459653197576</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04709314542416323</v>
+        <v>0.04595412590471867</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>80</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1326209689.398859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3102080720.285043</v>
+        <v>2302242403.796371</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08454125354600986</v>
+        <v>0.08566576424619096</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04093698666652854</v>
+        <v>0.03228687777051596</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>134</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1551040315.197526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2977811682.902507</v>
+        <v>3577877235.05431</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1981525093306308</v>
+        <v>0.2067120245580221</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02877304390517523</v>
+        <v>0.02074915742358568</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>136</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1488905896.7151</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1675542957.710498</v>
+        <v>1569048871.690364</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1495367545545686</v>
+        <v>0.1570429321927507</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0285959899578895</v>
+        <v>0.02494289937873072</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>837771550.4992716</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4043841750.346342</v>
+        <v>3781394560.943465</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1726276315105418</v>
+        <v>0.179020496400389</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04931119456154025</v>
+        <v>0.03606030607015254</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>180</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2021920900.506793</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3388820760.605186</v>
+        <v>4115650971.718429</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1324924762977811</v>
+        <v>0.1781514728604051</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03447345733385666</v>
+        <v>0.03761438446494424</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>176</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1694410350.421712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2322703574.460541</v>
+        <v>2409296321.394355</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1939202278206423</v>
+        <v>0.1307406316399003</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03542356064561657</v>
+        <v>0.04067855548651944</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>146</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1161351743.237258</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5040141886.36276</v>
+        <v>4688654207.215255</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09047650259079501</v>
+        <v>0.07674500146097198</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02572365399420893</v>
+        <v>0.02904567184821134</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>143</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2520070945.298192</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3529954439.439306</v>
+        <v>3479342069.076059</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1520351711517834</v>
+        <v>0.1830089144684911</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02849482759877827</v>
+        <v>0.0409133818013032</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>136</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1764977215.800758</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1250057083.958962</v>
+        <v>1801557897.108022</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07426564271257668</v>
+        <v>0.0658219237991811</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03474620281575485</v>
+        <v>0.04405106320733835</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>625028570.8221714</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2499568263.843979</v>
+        <v>1766102664.19435</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1144710393032723</v>
+        <v>0.09812231533858053</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04375649588694272</v>
+        <v>0.03999066987132557</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>88</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1249784162.796933</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4516752129.880901</v>
+        <v>4628449707.989175</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1619760403346118</v>
+        <v>0.1087106508675613</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04220864915233338</v>
+        <v>0.03724786515707505</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>126</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2258376074.034788</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2921919712.145404</v>
+        <v>2659674564.086896</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1608097155149766</v>
+        <v>0.1806663890631458</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02746810937952942</v>
+        <v>0.03441975747230396</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>140</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1460959892.005765</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1310915235.174236</v>
+        <v>866524810.5891163</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1671425534501008</v>
+        <v>0.1405660911158462</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0180678857470513</v>
+        <v>0.01982310943567856</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>655457722.5009265</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2414753835.638032</v>
+        <v>2443467778.959873</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1427392178599736</v>
+        <v>0.1490258587238233</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02311604887385797</v>
+        <v>0.03182436891076729</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>58</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1207376900.003336</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2171897980.116442</v>
+        <v>1883241933.1207</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0660071614750135</v>
+        <v>0.08776686390884691</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03760110159081738</v>
+        <v>0.0425203454857448</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1085949009.56287</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2784141072.294565</v>
+        <v>4001674945.762273</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09936284567872301</v>
+        <v>0.0939453315928343</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05711833501745102</v>
+        <v>0.05130613401070683</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>118</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1392070610.623509</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1304424207.678849</v>
+        <v>1056190948.654748</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1390089489785403</v>
+        <v>0.1731274246095421</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04278488681234885</v>
+        <v>0.03795445777415545</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>652212122.7440436</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2507075412.183063</v>
+        <v>3009889402.920042</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1101849515649365</v>
+        <v>0.1041701313249045</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03250456462474992</v>
+        <v>0.03227410053318374</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>125</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1253537774.480209</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1363378918.800164</v>
+        <v>936514371.843949</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08248560789385334</v>
+        <v>0.09577545569443868</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02919667209419466</v>
+        <v>0.02312767227395377</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>681689439.7902364</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1291127709.670219</v>
+        <v>892662924.4081155</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09228844649886245</v>
+        <v>0.08097257123565409</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03589271438998564</v>
+        <v>0.03022583240443574</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>645563898.1613108</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3720800752.90875</v>
+        <v>4556747847.96609</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1109394855655678</v>
+        <v>0.1407759681198064</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02242298614216767</v>
+        <v>0.02695177006514198</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1860400400.472053</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3477227625.198025</v>
+        <v>2593161827.169583</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1513850712415998</v>
+        <v>0.09721711589388315</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04316234508268951</v>
+        <v>0.043564402029929</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>138</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1738613865.258386</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4462484381.403414</v>
+        <v>5390168090.734917</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1221737593666913</v>
+        <v>0.1481498561517367</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04136800191689614</v>
+        <v>0.04660309088765181</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>189</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2231242175.488967</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1833873663.42275</v>
+        <v>1895882087.255496</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09198410039919248</v>
+        <v>0.1239764545001214</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03367573156722917</v>
+        <v>0.02992066556737685</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>916936850.2516958</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1302696561.767261</v>
+        <v>1013640622.815086</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09855735590638169</v>
+        <v>0.09529427691192217</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04325739192983495</v>
+        <v>0.03861514603632207</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>651348208.1957928</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1772888248.138455</v>
+        <v>1733489080.704908</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1055917755708259</v>
+        <v>0.07570892971367689</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02373831312998332</v>
+        <v>0.0376902030328177</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>886444248.9535764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2539613846.452469</v>
+        <v>2760735495.154491</v>
       </c>
       <c r="F33" t="n">
-        <v>0.184754891444202</v>
+        <v>0.2050533508378746</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06002367177527154</v>
+        <v>0.05472705242718357</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>129</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1269806958.080018</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1514138771.761883</v>
+        <v>1313473058.036795</v>
       </c>
       <c r="F34" t="n">
-        <v>0.087249781828481</v>
+        <v>0.1015026939452203</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02617955205021481</v>
+        <v>0.02774692615288634</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>757069339.4069624</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1362722029.501141</v>
+        <v>953773675.7453811</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08156396449879701</v>
+        <v>0.1063249419012284</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02837238872977345</v>
+        <v>0.03705972918396091</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>681360953.8054579</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2779705860.212473</v>
+        <v>3154768803.790837</v>
       </c>
       <c r="F36" t="n">
-        <v>0.166853528328879</v>
+        <v>0.1660758901693124</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01810460133252863</v>
+        <v>0.01943656062407759</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>107</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1389852929.698699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2840343787.605207</v>
+        <v>2572388713.262243</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06847326830441092</v>
+        <v>0.07820155281570186</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04224906055148542</v>
+        <v>0.03516894587291583</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>115</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1420172036.700646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1370122832.708552</v>
+        <v>1976414825.17027</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08192416413324598</v>
+        <v>0.1175014720065158</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03074478925159019</v>
+        <v>0.03049007986058881</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>685061483.9796705</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1562566065.44215</v>
+        <v>1828968504.502265</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1226057098252188</v>
+        <v>0.1193392644262218</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02392025786928043</v>
+        <v>0.02972878045091817</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>781283093.6604283</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1820401200.055537</v>
+        <v>1694695107.712832</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1254332540034942</v>
+        <v>0.1622200933620335</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05815744062795424</v>
+        <v>0.05302096400869194</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>910200486.0369002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2153165672.9822</v>
+        <v>2591014163.894897</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1206597151177075</v>
+        <v>0.1555567756770116</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04432508632792411</v>
+        <v>0.03067571469370647</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>107</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1076582895.705554</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2929120977.8034</v>
+        <v>2838354036.964953</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09860630676674238</v>
+        <v>0.1085165833814673</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03898059173230884</v>
+        <v>0.03456933897121138</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>140</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1464560444.484431</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2741972030.775748</v>
+        <v>2655312196.802274</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1633088438450399</v>
+        <v>0.182525449501792</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02144500711890687</v>
+        <v>0.02514418405195434</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>148</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1370986039.74019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1743024793.172477</v>
+        <v>1835506457.359589</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08027399809247718</v>
+        <v>0.1003918192113072</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03384646361897551</v>
+        <v>0.02382313170689161</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>871512451.6591071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1793274339.602999</v>
+        <v>2369535786.978402</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1218920964831558</v>
+        <v>0.1355263639199574</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05016339342737268</v>
+        <v>0.03506333102421032</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>896637139.8252097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4709020724.983483</v>
+        <v>3884142649.563202</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1369680848070069</v>
+        <v>0.152060171383653</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0486010464702972</v>
+        <v>0.0386613410274487</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>152</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2354510372.646893</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3370008747.660882</v>
+        <v>4571741463.446278</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1408477389551581</v>
+        <v>0.1867022682784772</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04695838548343011</v>
+        <v>0.05186349595716544</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>116</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1685004337.265041</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4092583732.28677</v>
+        <v>3304787056.768511</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07272012782019037</v>
+        <v>0.07465555761681626</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0321836581949126</v>
+        <v>0.03263473046033992</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>139</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2046291895.150533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1225134790.258215</v>
+        <v>1258844871.423824</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1767085520100182</v>
+        <v>0.1584994226853643</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0315243862891856</v>
+        <v>0.03490858140414763</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>612567469.9146521</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3873930170.797621</v>
+        <v>2570728361.746665</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1172983714422283</v>
+        <v>0.1513329162478367</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03912366288779475</v>
+        <v>0.04032111107707982</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>146</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1936965083.075592</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1434397714.798704</v>
+        <v>1386530461.96172</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1662981107227448</v>
+        <v>0.1923581466539443</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04922089775707627</v>
+        <v>0.04093420934022818</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>717198870.9794698</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4214597387.226941</v>
+        <v>3940214492.39776</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1019997021619541</v>
+        <v>0.1215825775772905</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04606055684444468</v>
+        <v>0.05460466978344081</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>176</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2107298737.478164</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2451646363.810256</v>
+        <v>2635662188.709649</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1717124392466824</v>
+        <v>0.1824954905480113</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02174699874234852</v>
+        <v>0.02218438339877974</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>123</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1225823252.249881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3848804771.249918</v>
+        <v>4183374118.743259</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1380019754320152</v>
+        <v>0.1469126081121557</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04083665856318185</v>
+        <v>0.04265167326260984</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>139</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1924402437.848236</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3122691402.474397</v>
+        <v>3522890871.001512</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2030074270820782</v>
+        <v>0.1898976204999866</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02795124531258527</v>
+        <v>0.0305491826199253</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1561345637.471913</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1874994726.896478</v>
+        <v>1474307164.729074</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1306597157671306</v>
+        <v>0.1070441736699519</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03692762776758204</v>
+        <v>0.04637990864367889</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>937497350.17608</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3505159162.962059</v>
+        <v>4117051838.211141</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1276589423302551</v>
+        <v>0.1298571669967686</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02735210539817249</v>
+        <v>0.01690014336801838</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>135</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1752579628.317138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1903043694.212831</v>
+        <v>1660600288.296606</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1835160514212996</v>
+        <v>0.1252856750106639</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03588208766613268</v>
+        <v>0.03754835155906212</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>951521841.4738432</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3537569800.540436</v>
+        <v>5329931422.854138</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1134766359906129</v>
+        <v>0.08553242796751624</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03322125238414495</v>
+        <v>0.03464129284599222</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1768784898.538696</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2568745651.164955</v>
+        <v>3762146974.425754</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1293051476223452</v>
+        <v>0.1374730249701567</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02361833442804297</v>
+        <v>0.02901923559705426</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>134</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1284372850.714314</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2330980170.850909</v>
+        <v>3283576967.8217</v>
       </c>
       <c r="F61" t="n">
-        <v>0.170774543104568</v>
+        <v>0.1556153382425537</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02276077667332204</v>
+        <v>0.02501768172508461</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>147</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1165490129.001252</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1659302877.155025</v>
+        <v>1867948913.264677</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1176218186051061</v>
+        <v>0.1733039395685377</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03756713757976585</v>
+        <v>0.04115109842734254</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>829651445.5698594</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5145181478.695393</v>
+        <v>5033977903.984564</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08524462038553456</v>
+        <v>0.06504894814070233</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0405144526394826</v>
+        <v>0.03502535463996963</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>125</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2572590750.638288</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4985596989.849157</v>
+        <v>5253267727.531957</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1719362850239271</v>
+        <v>0.1769359730257098</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0271280353169517</v>
+        <v>0.0238453829075801</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>133</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2492798600.129659</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4379165407.973215</v>
+        <v>5892395913.020638</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1444244957969776</v>
+        <v>0.1151396320142841</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02152505661681782</v>
+        <v>0.02720401817755999</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>153</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2189582699.969703</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5214042456.170389</v>
+        <v>4742329852.192947</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1135393432441152</v>
+        <v>0.1594754950862893</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03459448702187663</v>
+        <v>0.03902613188286558</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>125</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2607021266.711822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3111471322.912859</v>
+        <v>3345273491.23197</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09827269007646855</v>
+        <v>0.06650539705349845</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04544992068245819</v>
+        <v>0.04987345325454121</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>136</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1555735670.267129</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4539315807.588458</v>
+        <v>4389179116.431088</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1283236482211534</v>
+        <v>0.1403419355836056</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04259704717124536</v>
+        <v>0.03397765195496828</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>137</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2269657932.278968</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1849732027.284186</v>
+        <v>1984122481.703033</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1128420426170068</v>
+        <v>0.1245160547117013</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03661441166396534</v>
+        <v>0.05491982737955182</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>924865999.2128378</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2574620027.528131</v>
+        <v>3480215964.331662</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09432268285986156</v>
+        <v>0.09711482294858055</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04799154215323079</v>
+        <v>0.03623808081715208</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>121</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1287309963.098752</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4924806596.122023</v>
+        <v>5402995161.348241</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1140841991655376</v>
+        <v>0.1841403629992268</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02053016952960167</v>
+        <v>0.0307090372024381</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>155</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2462403398.145202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1959238974.664168</v>
+        <v>1940583652.904119</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1029035976724212</v>
+        <v>0.1084807460919837</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0461270053522756</v>
+        <v>0.03340707270285811</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>979619440.2855902</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2916123194.061292</v>
+        <v>3220525941.583161</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1093304834930568</v>
+        <v>0.08660768078772586</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03377960827333211</v>
+        <v>0.0355974378882723</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>161</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1458061600.707052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2827439386.870674</v>
+        <v>3724062336.44807</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1682324122356035</v>
+        <v>0.1235675391881563</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02756952452451975</v>
+        <v>0.02684232826638895</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>145</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1413719773.783255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1793157773.499497</v>
+        <v>1536161844.719832</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1546992827973029</v>
+        <v>0.1085382793012255</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02343617378037689</v>
+        <v>0.02298428317569903</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>896578870.2923237</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3590332806.453691</v>
+        <v>3541574331.373679</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1189572108541891</v>
+        <v>0.08605303605203908</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02961858027116608</v>
+        <v>0.02154294766335677</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>102</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1795166370.799442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1522763512.189276</v>
+        <v>1972615330.962967</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1534625535251168</v>
+        <v>0.1737207446676594</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02773678246129734</v>
+        <v>0.02345228237703146</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>761381747.119796</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3741164343.318141</v>
+        <v>4573590009.999329</v>
       </c>
       <c r="F78" t="n">
-        <v>0.100170556190763</v>
+        <v>0.1058734512848978</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05007013109111647</v>
+        <v>0.05376082008928913</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>148</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1870582155.936466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1535230631.806687</v>
+        <v>1513810438.286882</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1515305603655605</v>
+        <v>0.1518149069600448</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02578609407537151</v>
+        <v>0.03166270120827813</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>767615356.3100666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4715901493.136377</v>
+        <v>3579319520.082834</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08018393713436529</v>
+        <v>0.08896087192431905</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03699859836887465</v>
+        <v>0.03877486737684894</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2357950781.648012</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3614892395.510746</v>
+        <v>3843360376.816099</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1365168502305958</v>
+        <v>0.1154440688910436</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03099686104874729</v>
+        <v>0.02542452109985061</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1807446146.686273</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4627633627.332536</v>
+        <v>4438418682.002793</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1471027646995701</v>
+        <v>0.2013874439011371</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02079764631798308</v>
+        <v>0.02607913737515665</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>149</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2313816818.419888</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2380084181.600646</v>
+        <v>1584853155.437046</v>
       </c>
       <c r="F83" t="n">
-        <v>0.102962797724337</v>
+        <v>0.1357366179364065</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02868486174573</v>
+        <v>0.03910409795722126</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1190042123.435955</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2593258694.159402</v>
+        <v>1662814520.391861</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1029516560350317</v>
+        <v>0.1087807552042158</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04266784253042675</v>
+        <v>0.04259540569323423</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1296629265.197917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3014382660.466055</v>
+        <v>2530888628.139598</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1627733384928073</v>
+        <v>0.1608953809505039</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05150506274066556</v>
+        <v>0.04833670442767261</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>161</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1507191391.968983</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1774177426.435877</v>
+        <v>1931006677.570048</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1696700531505259</v>
+        <v>0.1274601096230085</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01868679223793752</v>
+        <v>0.01952090640205257</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>887088709.4562589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1305345069.829377</v>
+        <v>1169793816.293433</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1754437637169503</v>
+        <v>0.189497980347051</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03837366562159346</v>
+        <v>0.03278660345831358</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>652672617.5113094</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3425333232.863318</v>
+        <v>2312878792.036497</v>
       </c>
       <c r="F88" t="n">
-        <v>0.111342811273546</v>
+        <v>0.140870034458037</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02633079542024517</v>
+        <v>0.02731768275349665</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>169</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1712666688.930922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2486386518.452126</v>
+        <v>2616705089.66026</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1008337094384466</v>
+        <v>0.1111691216466027</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03125146932028302</v>
+        <v>0.02821121755557629</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>142</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1243193335.018276</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1985469770.285469</v>
+        <v>1678659186.524599</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1035425507645524</v>
+        <v>0.1289441380011629</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04705105459338318</v>
+        <v>0.03815536798145831</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>992734952.7172719</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1272638703.671294</v>
+        <v>1273393268.422357</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1684391172099507</v>
+        <v>0.128906078731699</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03738985992876371</v>
+        <v>0.04611670818945424</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>636319421.1012748</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2234858321.066784</v>
+        <v>2012083328.729035</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1043706923450121</v>
+        <v>0.09216162675788797</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03045829773951046</v>
+        <v>0.0374035147807676</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>121</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1117429124.51605</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3710184840.425841</v>
+        <v>3595110429.760448</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1384693508526719</v>
+        <v>0.1344550015437478</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0482550108500235</v>
+        <v>0.0331426902575852</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>132</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1855092439.598627</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1890018335.969096</v>
+        <v>2321581122.698753</v>
       </c>
       <c r="F94" t="n">
-        <v>0.122751834831908</v>
+        <v>0.1368198176037121</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04108519520265663</v>
+        <v>0.03878614854222125</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>945009152.0231659</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2595989870.294629</v>
+        <v>3006605871.449134</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1174926560284286</v>
+        <v>0.1025774406295317</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04276006625590419</v>
+        <v>0.04327816716863443</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>104</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1297994964.280702</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1581359241.095674</v>
+        <v>1558686091.433973</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1106310913691495</v>
+        <v>0.1392511586296495</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03046131568393862</v>
+        <v>0.03259929418190486</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>790679652.2340298</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3946293571.534886</v>
+        <v>3572041552.382432</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1581663509023807</v>
+        <v>0.154415951316402</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02135626051117494</v>
+        <v>0.02197746210032792</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>137</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1973146837.845328</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3665972181.747309</v>
+        <v>3152930582.049103</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1015529367434981</v>
+        <v>0.08042216181234996</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02887625366187598</v>
+        <v>0.02942331979996174</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>113</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1832986120.729845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2120435344.068919</v>
+        <v>2648913303.153409</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1023250987507627</v>
+        <v>0.1476606200819776</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02930793037668569</v>
+        <v>0.03364345836295307</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>134</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1060217594.283573</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3852407463.078017</v>
+        <v>3432422853.488684</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1142793122105722</v>
+        <v>0.1302864602367968</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02371624383942579</v>
+        <v>0.02665363299484858</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>130</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1926203790.452786</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2588239318.883082</v>
+        <v>2826539109.976312</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1403638777245007</v>
+        <v>0.1882758184732517</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04487971979184231</v>
+        <v>0.04117304583804341</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>173</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1294119694.075099</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_427.xlsx
+++ b/output/fit_clients/fit_round_427.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1735573190.72366</v>
+        <v>1581927085.581299</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08704504619386158</v>
+        <v>0.08565146950809492</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03197797658443093</v>
+        <v>0.02979204465860886</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2513275942.103096</v>
+        <v>2313188970.968229</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1123466894242742</v>
+        <v>0.1656764198199616</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04225915037654043</v>
+        <v>0.03062843476960754</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4784089846.978998</v>
+        <v>4787826282.147782</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1115875665786137</v>
+        <v>0.131901328904467</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02494390057288939</v>
+        <v>0.0337954532064266</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4237001026.499743</v>
+        <v>2611248762.573418</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07327707347168419</v>
+        <v>0.08701582514998418</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03328521652102907</v>
+        <v>0.03750162301216037</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2736035808.356583</v>
+        <v>2646357838.738939</v>
       </c>
       <c r="F6" t="n">
-        <v>0.110459653197576</v>
+        <v>0.1444690257697471</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04595412590471867</v>
+        <v>0.05254681779336982</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2302242403.796371</v>
+        <v>2939073920.145234</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08566576424619096</v>
+        <v>0.06400718034790771</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03228687777051596</v>
+        <v>0.04694150836975843</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3577877235.05431</v>
+        <v>3780002277.255308</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2067120245580221</v>
+        <v>0.2137263532986886</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02074915742358568</v>
+        <v>0.02635435783722359</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1569048871.690364</v>
+        <v>1573047651.197288</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1570429321927507</v>
+        <v>0.1374460347654326</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02494289937873072</v>
+        <v>0.02976040109509501</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3781394560.943465</v>
+        <v>5610508956.251189</v>
       </c>
       <c r="F10" t="n">
-        <v>0.179020496400389</v>
+        <v>0.1574865075284145</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03606030607015254</v>
+        <v>0.03324179736291171</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4115650971.718429</v>
+        <v>3662134071.206949</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1781514728604051</v>
+        <v>0.136531189638394</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03761438446494424</v>
+        <v>0.0465502109605082</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2409296321.394355</v>
+        <v>3042344236.851504</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1307406316399003</v>
+        <v>0.1906979170920831</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04067855548651944</v>
+        <v>0.05111812204382416</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4688654207.215255</v>
+        <v>4470037249.183055</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07674500146097198</v>
+        <v>0.09309726513227372</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02904567184821134</v>
+        <v>0.02174381761989783</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3479342069.076059</v>
+        <v>2931851901.102324</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1830089144684911</v>
+        <v>0.1317476312976761</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0409133818013032</v>
+        <v>0.03527417173342639</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1801557897.108022</v>
+        <v>1264960351.774227</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0658219237991811</v>
+        <v>0.09951837949666062</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04405106320733835</v>
+        <v>0.04806499084164821</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1766102664.19435</v>
+        <v>2510360687.031985</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09812231533858053</v>
+        <v>0.08214603956924237</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03999066987132557</v>
+        <v>0.03969635865146049</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4628449707.989175</v>
+        <v>4425817401.614686</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1087106508675613</v>
+        <v>0.1660903789725216</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03724786515707505</v>
+        <v>0.04496212234457318</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2659674564.086896</v>
+        <v>3360812786.224347</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1806663890631458</v>
+        <v>0.1149075959341364</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03441975747230396</v>
+        <v>0.02401971343621332</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>866524810.5891163</v>
+        <v>1293128208.575737</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1405660911158462</v>
+        <v>0.1296598746578641</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01982310943567856</v>
+        <v>0.02044391609041638</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2443467778.959873</v>
+        <v>2764288558.493146</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1490258587238233</v>
+        <v>0.1442530609334691</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03182436891076729</v>
+        <v>0.03021419780327276</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1883241933.1207</v>
+        <v>2638477224.449075</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08776686390884691</v>
+        <v>0.08070240840631246</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0425203454857448</v>
+        <v>0.03418827582852163</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4001674945.762273</v>
+        <v>2738294262.72649</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0939453315928343</v>
+        <v>0.132429602152613</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05130613401070683</v>
+        <v>0.05180869036224266</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1056190948.654748</v>
+        <v>1156628206.003419</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1731274246095421</v>
+        <v>0.1173222393056571</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03795445777415545</v>
+        <v>0.04412651771560253</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3009889402.920042</v>
+        <v>3443697948.617757</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1041701313249045</v>
+        <v>0.1022637983217334</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03227410053318374</v>
+        <v>0.02404446779198326</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>936514371.843949</v>
+        <v>1375291716.165932</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09577545569443868</v>
+        <v>0.1050737745894269</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02312767227395377</v>
+        <v>0.02151644707229695</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>892662924.4081155</v>
+        <v>1404472588.865049</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08097257123565409</v>
+        <v>0.08523430805287185</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03022583240443574</v>
+        <v>0.02751633702782834</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4556747847.96609</v>
+        <v>3589615805.900376</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1407759681198064</v>
+        <v>0.149315451489293</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02695177006514198</v>
+        <v>0.02662037268480695</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2593161827.169583</v>
+        <v>3381496513.100124</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09721711589388315</v>
+        <v>0.1225268581536807</v>
       </c>
       <c r="G28" t="n">
-        <v>0.043564402029929</v>
+        <v>0.04189491528471551</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5390168090.734917</v>
+        <v>5357866320.697459</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1481498561517367</v>
+        <v>0.1139044895348403</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04660309088765181</v>
+        <v>0.03394591497783038</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1895882087.255496</v>
+        <v>2378747341.219388</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1239764545001214</v>
+        <v>0.10568587481063</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02992066556737685</v>
+        <v>0.02613854433961425</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1013640622.815086</v>
+        <v>1228865076.126581</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09529427691192217</v>
+        <v>0.1093198063465098</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03861514603632207</v>
+        <v>0.03200873606087038</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1733489080.704908</v>
+        <v>1481685829.648298</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07570892971367689</v>
+        <v>0.09243146841991308</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0376902030328177</v>
+        <v>0.02597629326661025</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2760735495.154491</v>
+        <v>2109103417.604858</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2050533508378746</v>
+        <v>0.1653647653462726</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05472705242718357</v>
+        <v>0.05079697262567948</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1313473058.036795</v>
+        <v>1422160806.14693</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1015026939452203</v>
+        <v>0.0881176977371223</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02774692615288634</v>
+        <v>0.02666250653799705</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>953773675.7453811</v>
+        <v>1262157375.203741</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1063249419012284</v>
+        <v>0.1156257668439019</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03705972918396091</v>
+        <v>0.04400121668604589</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3154768803.790837</v>
+        <v>2927277130.180365</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1660758901693124</v>
+        <v>0.1195002151440467</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01943656062407759</v>
+        <v>0.02894643290122392</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2572388713.262243</v>
+        <v>2577634731.366391</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07820155281570186</v>
+        <v>0.0792381141147496</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03516894587291583</v>
+        <v>0.02588171091813382</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1976414825.17027</v>
+        <v>1347880705.533572</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1175014720065158</v>
+        <v>0.1015418929032683</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03049007986058881</v>
+        <v>0.03298614303975498</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1828968504.502265</v>
+        <v>1734275139.014802</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1193392644262218</v>
+        <v>0.1705226863503859</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02972878045091817</v>
+        <v>0.02136968102447709</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1694695107.712832</v>
+        <v>1183827824.887933</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1622200933620335</v>
+        <v>0.1464636277795182</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05302096400869194</v>
+        <v>0.0468013118267878</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2591014163.894897</v>
+        <v>2678081736.261209</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1555567756770116</v>
+        <v>0.1373180362588931</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03067571469370647</v>
+        <v>0.0299462090914411</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2838354036.964953</v>
+        <v>2630245246.427553</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1085165833814673</v>
+        <v>0.08331508732100126</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03456933897121138</v>
+        <v>0.04191372394727159</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2655312196.802274</v>
+        <v>2750514922.413549</v>
       </c>
       <c r="F43" t="n">
-        <v>0.182525449501792</v>
+        <v>0.147701748703442</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02514418405195434</v>
+        <v>0.02484957675454029</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1835506457.359589</v>
+        <v>1687320852.263135</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1003918192113072</v>
+        <v>0.0865481023752258</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02382313170689161</v>
+        <v>0.03185458598222385</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2369535786.978402</v>
+        <v>1865520215.06277</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1355263639199574</v>
+        <v>0.1205499605947877</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03506333102421032</v>
+        <v>0.05370671997734599</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3884142649.563202</v>
+        <v>3960412867.333161</v>
       </c>
       <c r="F46" t="n">
-        <v>0.152060171383653</v>
+        <v>0.1563082897724625</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0386613410274487</v>
+        <v>0.05405885301036761</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4571741463.446278</v>
+        <v>4464235540.58768</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1867022682784772</v>
+        <v>0.1888489396884391</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05186349595716544</v>
+        <v>0.03880942686097333</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3304787056.768511</v>
+        <v>4662926059.828368</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07465555761681626</v>
+        <v>0.09379953311339644</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03263473046033992</v>
+        <v>0.03394547901864679</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1258844871.423824</v>
+        <v>1369641323.621441</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1584994226853643</v>
+        <v>0.1460399634426134</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03490858140414763</v>
+        <v>0.04007536149446372</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2570728361.746665</v>
+        <v>2632093741.374724</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1513329162478367</v>
+        <v>0.1249351626639764</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04032111107707982</v>
+        <v>0.04746007975714268</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1386530461.96172</v>
+        <v>1319189927.817422</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1923581466539443</v>
+        <v>0.1329575262739164</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04093420934022818</v>
+        <v>0.04890605799366956</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3940214492.39776</v>
+        <v>5108745942.294456</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1215825775772905</v>
+        <v>0.133015655010577</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05460466978344081</v>
+        <v>0.04268695200342998</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2635662188.709649</v>
+        <v>2536824516.242189</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1824954905480113</v>
+        <v>0.1961340785670847</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02218438339877974</v>
+        <v>0.03488253025922867</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4183374118.743259</v>
+        <v>4780965388.905925</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1469126081121557</v>
+        <v>0.1507060857445771</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04265167326260984</v>
+        <v>0.0348639904198957</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3522890871.001512</v>
+        <v>3023328023.727844</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1898976204999866</v>
+        <v>0.1491614652741249</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0305491826199253</v>
+        <v>0.02757828143922164</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1474307164.729074</v>
+        <v>1591776822.398281</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1070441736699519</v>
+        <v>0.1018989147161189</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04637990864367889</v>
+        <v>0.05297422552576443</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4117051838.211141</v>
+        <v>4092441408.989402</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1298571669967686</v>
+        <v>0.1468344044595914</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01690014336801838</v>
+        <v>0.02154745153960987</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1660600288.296606</v>
+        <v>1687342733.886881</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1252856750106639</v>
+        <v>0.1663472429047136</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03754835155906212</v>
+        <v>0.03716350071091953</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5329931422.854138</v>
+        <v>4670762606.304069</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08553242796751624</v>
+        <v>0.08485802680834012</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03464129284599222</v>
+        <v>0.0448256504538262</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3762146974.425754</v>
+        <v>3686494820.088337</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1374730249701567</v>
+        <v>0.1801470468423615</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02901923559705426</v>
+        <v>0.02806335531448153</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3283576967.8217</v>
+        <v>2792030545.003046</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1556153382425537</v>
+        <v>0.1779610469179022</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02501768172508461</v>
+        <v>0.02951322397066489</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1867948913.264677</v>
+        <v>1931404568.317825</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1733039395685377</v>
+        <v>0.1201803607986306</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04115109842734254</v>
+        <v>0.03297253012641145</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5033977903.984564</v>
+        <v>4868761277.557893</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06504894814070233</v>
+        <v>0.07748559553712031</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03502535463996963</v>
+        <v>0.04168028700767554</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5253267727.531957</v>
+        <v>3457398248.588495</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1769359730257098</v>
+        <v>0.1270500678996714</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0238453829075801</v>
+        <v>0.02313400083312703</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5892395913.020638</v>
+        <v>5769209594.003407</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1151396320142841</v>
+        <v>0.1341246589999333</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02720401817755999</v>
+        <v>0.03028172361015755</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4742329852.192947</v>
+        <v>5278741831.5656</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1594754950862893</v>
+        <v>0.1443173886625046</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03902613188286558</v>
+        <v>0.03579417739841242</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3345273491.23197</v>
+        <v>3066924902.490097</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06650539705349845</v>
+        <v>0.07895352832568353</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04987345325454121</v>
+        <v>0.04599436617612285</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4389179116.431088</v>
+        <v>4432536734.293363</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1403419355836056</v>
+        <v>0.1061502755211057</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03397765195496828</v>
+        <v>0.04696387429252341</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1984122481.703033</v>
+        <v>1968752305.60754</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1245160547117013</v>
+        <v>0.16654532633338</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05491982737955182</v>
+        <v>0.03860395488774394</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3480215964.331662</v>
+        <v>2820976580.085337</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09711482294858055</v>
+        <v>0.09324187733774955</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03623808081715208</v>
+        <v>0.03361719251540601</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5402995161.348241</v>
+        <v>4918496647.239937</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1841403629992268</v>
+        <v>0.1600011796165497</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0307090372024381</v>
+        <v>0.02273755788465453</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1940583652.904119</v>
+        <v>1645399040.882778</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1084807460919837</v>
+        <v>0.07160806766648015</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03340707270285811</v>
+        <v>0.05223295953791656</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3220525941.583161</v>
+        <v>3029811775.336496</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08660768078772586</v>
+        <v>0.1023835672137456</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0355974378882723</v>
+        <v>0.03511534918420611</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3724062336.44807</v>
+        <v>2436947081.757937</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1235675391881563</v>
+        <v>0.1269824432839742</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02684232826638895</v>
+        <v>0.02323414931445558</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1536161844.719832</v>
+        <v>1707513591.793693</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1085382793012255</v>
+        <v>0.1257923354713165</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02298428317569903</v>
+        <v>0.02521516850528387</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3541574331.373679</v>
+        <v>3822585543.387242</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08605303605203908</v>
+        <v>0.09623872238690138</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02154294766335677</v>
+        <v>0.02476109759307777</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1972615330.962967</v>
+        <v>1444060316.88794</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1737207446676594</v>
+        <v>0.1273714129009181</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02345228237703146</v>
+        <v>0.02316171812976761</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4573590009.999329</v>
+        <v>4010773891.17978</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1058734512848978</v>
+        <v>0.1351840136993187</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05376082008928913</v>
+        <v>0.05290189662141714</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1513810438.286882</v>
+        <v>1524380662.540635</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1518149069600448</v>
+        <v>0.1149082699977639</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03166270120827813</v>
+        <v>0.02850677807953316</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3579319520.082834</v>
+        <v>4049505336.756227</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08896087192431905</v>
+        <v>0.09689909968007611</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03877486737684894</v>
+        <v>0.03508949152783847</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3843360376.816099</v>
+        <v>3763244508.193705</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1154440688910436</v>
+        <v>0.13464861627374</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02542452109985061</v>
+        <v>0.02653277514840793</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4438418682.002793</v>
+        <v>3455310522.576324</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2013874439011371</v>
+        <v>0.1693044873538729</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02607913737515665</v>
+        <v>0.02686330333874517</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1584853155.437046</v>
+        <v>2245897555.076259</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1357366179364065</v>
+        <v>0.1407615628149785</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03910409795722126</v>
+        <v>0.03473682788486333</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1662814520.391861</v>
+        <v>2137626482.663383</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1087807552042158</v>
+        <v>0.1072794446355463</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04259540569323423</v>
+        <v>0.03922015703395077</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2530888628.139598</v>
+        <v>3659678601.510166</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1608953809505039</v>
+        <v>0.1166400344606957</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04833670442767261</v>
+        <v>0.03456152149273049</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1931006677.570048</v>
+        <v>2613455805.503305</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1274601096230085</v>
+        <v>0.1702989874235437</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01952090640205257</v>
+        <v>0.01929498630565905</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1169793816.293433</v>
+        <v>921951898.9630879</v>
       </c>
       <c r="F87" t="n">
-        <v>0.189497980347051</v>
+        <v>0.1533419619384568</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03278660345831358</v>
+        <v>0.03902129210713168</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2312878792.036497</v>
+        <v>3278314708.647073</v>
       </c>
       <c r="F88" t="n">
-        <v>0.140870034458037</v>
+        <v>0.1194967849939598</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02731768275349665</v>
+        <v>0.03392924843296592</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2616705089.66026</v>
+        <v>2844567554.907023</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1111691216466027</v>
+        <v>0.1373070398733395</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02821121755557629</v>
+        <v>0.03064199280568471</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1678659186.524599</v>
+        <v>1699706230.589675</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1289441380011629</v>
+        <v>0.1226854371947124</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03815536798145831</v>
+        <v>0.04941786774350835</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1273393268.422357</v>
+        <v>1808920203.544542</v>
       </c>
       <c r="F91" t="n">
-        <v>0.128906078731699</v>
+        <v>0.1742748541163315</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04611670818945424</v>
+        <v>0.05207721706373247</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2012083328.729035</v>
+        <v>2567557200.449381</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09216162675788797</v>
+        <v>0.08966542474549462</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0374035147807676</v>
+        <v>0.03923229550998672</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3595110429.760448</v>
+        <v>4016263906.902847</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1344550015437478</v>
+        <v>0.1004319328071111</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0331426902575852</v>
+        <v>0.04865128929732083</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2321581122.698753</v>
+        <v>1974554456.722339</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1368198176037121</v>
+        <v>0.104820151107874</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03878614854222125</v>
+        <v>0.043275825434047</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3006605871.449134</v>
+        <v>3080187951.89316</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1025774406295317</v>
+        <v>0.1071765655261002</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04327816716863443</v>
+        <v>0.04842100289706787</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1558686091.433973</v>
+        <v>2309401601.074255</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1392511586296495</v>
+        <v>0.1194196130455512</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03259929418190486</v>
+        <v>0.04116155619546735</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3572041552.382432</v>
+        <v>3442243930.243306</v>
       </c>
       <c r="F97" t="n">
-        <v>0.154415951316402</v>
+        <v>0.1124756255998377</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02197746210032792</v>
+        <v>0.02225361904066417</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3152930582.049103</v>
+        <v>3290682024.827666</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08042216181234996</v>
+        <v>0.1126447798823596</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02942331979996174</v>
+        <v>0.03007790559220877</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2648913303.153409</v>
+        <v>2783636248.885402</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1476606200819776</v>
+        <v>0.08983277825717592</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03364345836295307</v>
+        <v>0.02643152787086458</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3432422853.488684</v>
+        <v>3803757120.864583</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1302864602367968</v>
+        <v>0.1464330834867336</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02665363299484858</v>
+        <v>0.0258855598965351</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2826539109.976312</v>
+        <v>3245004002.766288</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1882758184732517</v>
+        <v>0.1818270812859548</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04117304583804341</v>
+        <v>0.04278855491039311</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_427.xlsx
+++ b/output/fit_clients/fit_round_427.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1581927085.581299</v>
+        <v>1832580909.740703</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08565146950809492</v>
+        <v>0.07800790138907446</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02979204465860886</v>
+        <v>0.03515246040619243</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2313188970.968229</v>
+        <v>2095349314.148439</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1656764198199616</v>
+        <v>0.1452569975361976</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03062843476960754</v>
+        <v>0.04572953098443681</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4787826282.147782</v>
+        <v>5114813501.808871</v>
       </c>
       <c r="F4" t="n">
-        <v>0.131901328904467</v>
+        <v>0.1638748476785566</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0337954532064266</v>
+        <v>0.03439773453659609</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>217</v>
+      </c>
+      <c r="J4" t="n">
+        <v>426</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40.95143778223434</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2611248762.573418</v>
+        <v>3686093838.704698</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08701582514998418</v>
+        <v>0.1095885856194657</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03750162301216037</v>
+        <v>0.04092862819681613</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>175</v>
+      </c>
+      <c r="J5" t="n">
+        <v>427</v>
+      </c>
+      <c r="K5" t="n">
+        <v>52.5780067323125</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2646357838.738939</v>
+        <v>2532164203.360897</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1444690257697471</v>
+        <v>0.1135463587050241</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05254681779336982</v>
+        <v>0.0373663481023699</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2939073920.145234</v>
+        <v>2159629595.027723</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06400718034790771</v>
+        <v>0.08890285275307332</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04694150836975843</v>
+        <v>0.0335217651216017</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +715,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3780002277.255308</v>
+        <v>3499414947.946131</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2137263532986886</v>
+        <v>0.2183187207061619</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02635435783722359</v>
+        <v>0.0215812954845614</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>114</v>
+      </c>
+      <c r="J8" t="n">
+        <v>422</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1573047651.197288</v>
+        <v>1778296100.020688</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1374460347654326</v>
+        <v>0.153378401835734</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02976040109509501</v>
+        <v>0.02285569354307813</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5610508956.251189</v>
+        <v>5507666689.806514</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1574865075284145</v>
+        <v>0.1717776573803191</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03324179736291171</v>
+        <v>0.04767034704482165</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>338</v>
+      </c>
+      <c r="J10" t="n">
+        <v>427</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3662134071.206949</v>
+        <v>3451793796.468543</v>
       </c>
       <c r="F11" t="n">
-        <v>0.136531189638394</v>
+        <v>0.185499911386987</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0465502109605082</v>
+        <v>0.04031880484190548</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>177</v>
+      </c>
+      <c r="J11" t="n">
+        <v>424</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3042344236.851504</v>
+        <v>2396400132.859054</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1906979170920831</v>
+        <v>0.1760981390249429</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05111812204382416</v>
+        <v>0.04780616907555578</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4470037249.183055</v>
+        <v>4592021253.331962</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09309726513227372</v>
+        <v>0.06881816080121285</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02174381761989783</v>
+        <v>0.02312047898767087</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>223</v>
+      </c>
+      <c r="J13" t="n">
+        <v>427</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,16 +925,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2931851901.102324</v>
+        <v>2841433026.753021</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1317476312976761</v>
+        <v>0.1738750279918601</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03527417173342639</v>
+        <v>0.02960838202603028</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>92</v>
+      </c>
+      <c r="J14" t="n">
+        <v>426</v>
+      </c>
+      <c r="K14" t="n">
+        <v>37.112576738154</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1264960351.774227</v>
+        <v>1360267198.64931</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09951837949666062</v>
+        <v>0.1077491309504211</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04806499084164821</v>
+        <v>0.04643338608400539</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2510360687.031985</v>
+        <v>2745722375.940492</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08214603956924237</v>
+        <v>0.1099408272188914</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03969635865146049</v>
+        <v>0.04298381799760888</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4425817401.614686</v>
+        <v>5138561806.825505</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1660903789725216</v>
+        <v>0.170554563870495</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04496212234457318</v>
+        <v>0.03778022189164656</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>207</v>
+      </c>
+      <c r="J17" t="n">
+        <v>427</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3360812786.224347</v>
+        <v>3852225648.803751</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1149075959341364</v>
+        <v>0.1767480502837619</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02401971343621332</v>
+        <v>0.02901896529796125</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>110</v>
+      </c>
+      <c r="J18" t="n">
+        <v>427</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1293128208.575737</v>
+        <v>1280940456.440809</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1296598746578641</v>
+        <v>0.1735375340928142</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02044391609041638</v>
+        <v>0.01777281411934893</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2764288558.493146</v>
+        <v>1912213910.54237</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1442530609334691</v>
+        <v>0.1452141388154111</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03021419780327276</v>
+        <v>0.02313169232490453</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2638477224.449075</v>
+        <v>2551921607.180847</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08070240840631246</v>
+        <v>0.09445765638001943</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03418827582852163</v>
+        <v>0.03625554279096536</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2738294262.72649</v>
+        <v>3856676818.630675</v>
       </c>
       <c r="F22" t="n">
-        <v>0.132429602152613</v>
+        <v>0.1061430236423052</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05180869036224266</v>
+        <v>0.05729096351491482</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>121</v>
+      </c>
+      <c r="J22" t="n">
+        <v>427</v>
+      </c>
+      <c r="K22" t="n">
+        <v>55.1935518134724</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1156628206.003419</v>
+        <v>1472531802.907709</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1173222393056571</v>
+        <v>0.1345774626889807</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04412651771560253</v>
+        <v>0.0504579724481533</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3443697948.617757</v>
+        <v>3594671173.562668</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1022637983217334</v>
+        <v>0.09669495351338869</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02404446779198326</v>
+        <v>0.03496291028470675</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>135</v>
+      </c>
+      <c r="J24" t="n">
+        <v>425</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1375291716.165932</v>
+        <v>1393164505.254811</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1050737745894269</v>
+        <v>0.1090902647652087</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02151644707229695</v>
+        <v>0.0252743624719289</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1404472588.865049</v>
+        <v>1417457445.235289</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08523430805287185</v>
+        <v>0.0973581828725528</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02751633702782834</v>
+        <v>0.03336926501461087</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3589615805.900376</v>
+        <v>3961356491.82558</v>
       </c>
       <c r="F27" t="n">
-        <v>0.149315451489293</v>
+        <v>0.1010716931801965</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02662037268480695</v>
+        <v>0.01640015610303251</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>183</v>
+      </c>
+      <c r="J27" t="n">
+        <v>427</v>
+      </c>
+      <c r="K27" t="n">
+        <v>44.22456128590243</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3381496513.100124</v>
+        <v>2653330544.00316</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1225268581536807</v>
+        <v>0.1482468791007609</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04189491528471551</v>
+        <v>0.03049136532557745</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>105</v>
+      </c>
+      <c r="J28" t="n">
+        <v>423</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,17 +1456,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5357866320.697459</v>
+        <v>4019562622.843702</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1139044895348403</v>
+        <v>0.09169839175672409</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03394591497783038</v>
+        <v>0.02836560384860374</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>354</v>
+      </c>
+      <c r="J29" t="n">
+        <v>427</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2378747341.219388</v>
+        <v>1925443549.107622</v>
       </c>
       <c r="F30" t="n">
-        <v>0.10568587481063</v>
+        <v>0.0902204687060047</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02613854433961425</v>
+        <v>0.04003410222438172</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1228865076.126581</v>
+        <v>1444691080.662877</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1093198063465098</v>
+        <v>0.09921095383880871</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03200873606087038</v>
+        <v>0.04973168873581182</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1481685829.648298</v>
+        <v>1805285390.561353</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09243146841991308</v>
+        <v>0.1122750988367376</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02597629326661025</v>
+        <v>0.02947428128751249</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2109103417.604858</v>
+        <v>2969984638.173559</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1653647653462726</v>
+        <v>0.1455447452546611</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05079697262567948</v>
+        <v>0.03889505937065394</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1422160806.14693</v>
+        <v>1069207397.082862</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0881176977371223</v>
+        <v>0.1154503459429417</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02666250653799705</v>
+        <v>0.02176462700415238</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1262157375.203741</v>
+        <v>846570778.6410518</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1156257668439019</v>
+        <v>0.1120489712133234</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04400121668604589</v>
+        <v>0.03957349735015987</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2927277130.180365</v>
+        <v>2906976609.047599</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1195002151440467</v>
+        <v>0.1437926933935372</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02894643290122392</v>
+        <v>0.02098062852862024</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2577634731.366391</v>
+        <v>2943612536.960111</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0792381141147496</v>
+        <v>0.107182550634641</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02588171091813382</v>
+        <v>0.02740233806224398</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1347880705.533572</v>
+        <v>1657872908.886045</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1015418929032683</v>
+        <v>0.09082130531422321</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03298614303975498</v>
+        <v>0.0307356146232364</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1734275139.014802</v>
+        <v>1621862372.208113</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1705226863503859</v>
+        <v>0.1718682457828636</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02136968102447709</v>
+        <v>0.03144629927265834</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1183827824.887933</v>
+        <v>1141579256.069383</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1464636277795182</v>
+        <v>0.1349258354333596</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0468013118267878</v>
+        <v>0.03949822410965015</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2678081736.261209</v>
+        <v>2521063012.239671</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1373180362588931</v>
+        <v>0.1147701136937291</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0299462090914411</v>
+        <v>0.04562950188430621</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2630245246.427553</v>
+        <v>3671019194.166327</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08331508732100126</v>
+        <v>0.1178701889822731</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04191372394727159</v>
+        <v>0.04346172860168181</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>182</v>
+      </c>
+      <c r="J42" t="n">
+        <v>427</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2750514922.413549</v>
+        <v>3026770810.629571</v>
       </c>
       <c r="F43" t="n">
-        <v>0.147701748703442</v>
+        <v>0.1879340510452191</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02484957675454029</v>
+        <v>0.02115951069799107</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1981,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1687320852.263135</v>
+        <v>2247616289.679944</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0865481023752258</v>
+        <v>0.06322228946980078</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03185458598222385</v>
+        <v>0.02976399785699838</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2016,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1865520215.06277</v>
+        <v>2032759878.044849</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1205499605947877</v>
+        <v>0.1938322056976838</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05370671997734599</v>
+        <v>0.03689205510646968</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2051,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3960412867.333161</v>
+        <v>3617885896.819385</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1563082897724625</v>
+        <v>0.1339069206207569</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05405885301036761</v>
+        <v>0.05085602614221419</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>255</v>
+      </c>
+      <c r="J46" t="n">
+        <v>426</v>
+      </c>
+      <c r="K46" t="n">
+        <v>41.19249466885089</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4464235540.58768</v>
+        <v>3400526424.272969</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1888489396884391</v>
+        <v>0.1571198510386415</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03880942686097333</v>
+        <v>0.05135916374960633</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>191</v>
+      </c>
+      <c r="J47" t="n">
+        <v>426</v>
+      </c>
+      <c r="K47" t="n">
+        <v>35.29492937276397</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4662926059.828368</v>
+        <v>2899861582.870924</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09379953311339644</v>
+        <v>0.1105163142856443</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03394547901864679</v>
+        <v>0.03642250006521332</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>219</v>
+      </c>
+      <c r="J48" t="n">
+        <v>426</v>
+      </c>
+      <c r="K48" t="n">
+        <v>27.05082682894062</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1369641323.621441</v>
+        <v>1425981527.780514</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1460399634426134</v>
+        <v>0.1883823983568036</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04007536149446372</v>
+        <v>0.03937056505777748</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2197,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2632093741.374724</v>
+        <v>3602752637.069059</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1249351626639764</v>
+        <v>0.1408094561578166</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04746007975714268</v>
+        <v>0.03539509552394986</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>148</v>
+      </c>
+      <c r="J50" t="n">
+        <v>427</v>
+      </c>
+      <c r="K50" t="n">
+        <v>48.18897470420195</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2234,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1319189927.817422</v>
+        <v>1390790741.613182</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1329575262739164</v>
+        <v>0.1769370546871247</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04890605799366956</v>
+        <v>0.04354897563451343</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5108745942.294456</v>
+        <v>4978942847.007564</v>
       </c>
       <c r="F52" t="n">
-        <v>0.133015655010577</v>
+        <v>0.1122610688098591</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04268695200342998</v>
+        <v>0.04558219262008052</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>245</v>
+      </c>
+      <c r="J52" t="n">
+        <v>427</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2536824516.242189</v>
+        <v>2552518182.700195</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1961340785670847</v>
+        <v>0.1729606734038117</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03488253025922867</v>
+        <v>0.03525841106038726</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>63</v>
+      </c>
+      <c r="J53" t="n">
+        <v>424</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4780965388.905925</v>
+        <v>4867896583.475134</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1507060857445771</v>
+        <v>0.1088644980139654</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0348639904198957</v>
+        <v>0.04468289614104024</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>228</v>
+      </c>
+      <c r="J54" t="n">
+        <v>427</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3023328023.727844</v>
+        <v>4853929481.133079</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1491614652741249</v>
+        <v>0.2142902018938235</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02757828143922164</v>
+        <v>0.0243580043503916</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>211</v>
+      </c>
+      <c r="J55" t="n">
+        <v>427</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1591776822.398281</v>
+        <v>1319110235.897855</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1018989147161189</v>
+        <v>0.1294203462888295</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05297422552576443</v>
+        <v>0.05107264694308743</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4092441408.989402</v>
+        <v>2852590270.104651</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1468344044595914</v>
+        <v>0.1321697558122078</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02154745153960987</v>
+        <v>0.02327023872417605</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>186</v>
+      </c>
+      <c r="J57" t="n">
+        <v>426</v>
+      </c>
+      <c r="K57" t="n">
+        <v>24.93977990283285</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1687342733.886881</v>
+        <v>1255162387.787584</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1663472429047136</v>
+        <v>0.1962314799230467</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03716350071091953</v>
+        <v>0.03227985200806396</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4670762606.304069</v>
+        <v>4721585526.797979</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08485802680834012</v>
+        <v>0.1246948339961645</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0448256504538262</v>
+        <v>0.04767002579204505</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>209</v>
+      </c>
+      <c r="J59" t="n">
+        <v>426</v>
+      </c>
+      <c r="K59" t="n">
+        <v>40.73760596980485</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3686494820.088337</v>
+        <v>2829154034.208939</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1801470468423615</v>
+        <v>0.1648811728758515</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02806335531448153</v>
+        <v>0.02089279075407038</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>82</v>
+      </c>
+      <c r="J60" t="n">
+        <v>420</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2792030545.003046</v>
+        <v>2329030908.418417</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1779610469179022</v>
+        <v>0.1691945472519896</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02951322397066489</v>
+        <v>0.0246834285944476</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1931404568.317825</v>
+        <v>2106270897.95696</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1201803607986306</v>
+        <v>0.1369368685954388</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03297253012641145</v>
+        <v>0.04586159061956855</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4868761277.557893</v>
+        <v>5050337560.750756</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07748559553712031</v>
+        <v>0.1053741114767527</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04168028700767554</v>
+        <v>0.04260032404128861</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>213</v>
+      </c>
+      <c r="J63" t="n">
+        <v>426</v>
+      </c>
+      <c r="K63" t="n">
+        <v>39.50109917012649</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3457398248.588495</v>
+        <v>3485161697.995062</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1270500678996714</v>
+        <v>0.1345113811091131</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02313400083312703</v>
+        <v>0.03176205887440696</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>214</v>
+      </c>
+      <c r="J64" t="n">
+        <v>426</v>
+      </c>
+      <c r="K64" t="n">
+        <v>35.85750011871707</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5769209594.003407</v>
+        <v>5880588118.685826</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1341246589999333</v>
+        <v>0.1167644204584058</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03028172361015755</v>
+        <v>0.01995156696113372</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>311</v>
+      </c>
+      <c r="J65" t="n">
+        <v>426</v>
+      </c>
+      <c r="K65" t="n">
+        <v>39.52246383768329</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5278741831.5656</v>
+        <v>5202272007.741456</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1443173886625046</v>
+        <v>0.1108891189027355</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03579417739841242</v>
+        <v>0.03420872763228401</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>210</v>
+      </c>
+      <c r="J66" t="n">
+        <v>427</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3066924902.490097</v>
+        <v>2918936395.762788</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07895352832568353</v>
+        <v>0.09900805601281383</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04599436617612285</v>
+        <v>0.03682640899966828</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2839,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4432536734.293363</v>
+        <v>5949142569.368806</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1061502755211057</v>
+        <v>0.1204989166507134</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04696387429252341</v>
+        <v>0.05006150391268617</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>233</v>
+      </c>
+      <c r="J68" t="n">
+        <v>426</v>
+      </c>
+      <c r="K68" t="n">
+        <v>39.71434535873738</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1968752305.60754</v>
+        <v>1685752682.271209</v>
       </c>
       <c r="F69" t="n">
-        <v>0.16654532633338</v>
+        <v>0.1704823104642878</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03860395488774394</v>
+        <v>0.03979639957005575</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2820976580.085337</v>
+        <v>3618064377.395139</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09324187733774955</v>
+        <v>0.07855416250892253</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03361719251540601</v>
+        <v>0.03675776082331102</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>56</v>
+      </c>
+      <c r="J70" t="n">
+        <v>413</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2946,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4918496647.239937</v>
+        <v>4321998626.088655</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1600011796165497</v>
+        <v>0.1815953818259145</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02273755788465453</v>
+        <v>0.02809033914441985</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>297</v>
+      </c>
+      <c r="J71" t="n">
+        <v>427</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1645399040.882778</v>
+        <v>2250850371.462606</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07160806766648015</v>
+        <v>0.06856988526317076</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05223295953791656</v>
+        <v>0.03533576608845361</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3010,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3029811775.336496</v>
+        <v>2402978000.812422</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1023835672137456</v>
+        <v>0.07054015931188647</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03511534918420611</v>
+        <v>0.04672280389212898</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>30</v>
+      </c>
+      <c r="J73" t="n">
+        <v>426</v>
+      </c>
+      <c r="K73" t="n">
+        <v>39.52140893996194</v>
       </c>
     </row>
     <row r="74">
@@ -2502,17 +3053,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2436947081.757937</v>
+        <v>2924977907.589836</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1269824432839742</v>
+        <v>0.1673513213796816</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02323414931445558</v>
+        <v>0.02439659819606862</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>123</v>
+      </c>
+      <c r="J74" t="n">
+        <v>425</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1707513591.793693</v>
+        <v>2451056517.385074</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1257923354713165</v>
+        <v>0.1146845556436572</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02521516850528387</v>
+        <v>0.029885253121553</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3822585543.387242</v>
+        <v>5051543255.000627</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09623872238690138</v>
+        <v>0.09282717105958806</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02476109759307777</v>
+        <v>0.02547567154450646</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>203</v>
+      </c>
+      <c r="J76" t="n">
+        <v>427</v>
+      </c>
+      <c r="K76" t="n">
+        <v>41.68325510443074</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1444060316.88794</v>
+        <v>1666474457.460673</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1273714129009181</v>
+        <v>0.1762894861266485</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02316171812976761</v>
+        <v>0.02639058348137126</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3189,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4010773891.17978</v>
+        <v>3062344514.854761</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1351840136993187</v>
+        <v>0.123567741098399</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05290189662141714</v>
+        <v>0.0570556497003351</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>214</v>
+      </c>
+      <c r="J78" t="n">
+        <v>426</v>
+      </c>
+      <c r="K78" t="n">
+        <v>29.24772090331978</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3232,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1524380662.540635</v>
+        <v>1570667637.80135</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1149082699977639</v>
+        <v>0.1527298596333471</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02850677807953316</v>
+        <v>0.04028485246047453</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3261,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4049505336.756227</v>
+        <v>4865615603.381205</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09689909968007611</v>
+        <v>0.07626569276147169</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03508949152783847</v>
+        <v>0.02975483229697328</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>208</v>
+      </c>
+      <c r="J80" t="n">
+        <v>426</v>
+      </c>
+      <c r="K80" t="n">
+        <v>36.10946097329088</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3298,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3763244508.193705</v>
+        <v>3201254354.987044</v>
       </c>
       <c r="F81" t="n">
-        <v>0.13464861627374</v>
+        <v>0.09132089564851692</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02653277514840793</v>
+        <v>0.02653583571226376</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>198</v>
+      </c>
+      <c r="J81" t="n">
+        <v>425</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3455310522.576324</v>
+        <v>3607203851.339381</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1693044873538729</v>
+        <v>0.1381207156190152</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02686330333874517</v>
+        <v>0.02554603339790815</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
+      <c r="I82" t="n">
+        <v>289</v>
+      </c>
+      <c r="J82" t="n">
+        <v>425</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2245897555.076259</v>
+        <v>2284213358.862823</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1407615628149785</v>
+        <v>0.1397118740466777</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03473682788486333</v>
+        <v>0.03524893854368664</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2137626482.663383</v>
+        <v>2229104773.097669</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1072794446355463</v>
+        <v>0.1167876490374572</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03922015703395077</v>
+        <v>0.0500237274301192</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3659678601.510166</v>
+        <v>3447227104.845897</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1166400344606957</v>
+        <v>0.1719486033384473</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03456152149273049</v>
+        <v>0.04095734250714265</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>55</v>
+      </c>
+      <c r="J85" t="n">
+        <v>421</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2613455805.503305</v>
+        <v>2398147057.355611</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1702989874235437</v>
+        <v>0.1518835796715646</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01929498630565905</v>
+        <v>0.02350877282190492</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>921951898.9630879</v>
+        <v>1060251906.732776</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1533419619384568</v>
+        <v>0.1540324305758212</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03902129210713168</v>
+        <v>0.029764950085524</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3278314708.647073</v>
+        <v>3696827920.021092</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1194967849939598</v>
+        <v>0.1603248548136516</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03392924843296592</v>
+        <v>0.03601181964204942</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>54</v>
+      </c>
+      <c r="J88" t="n">
+        <v>427</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2844567554.907023</v>
+        <v>2170911561.69782</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1373070398733395</v>
+        <v>0.1391783592875153</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03064199280568471</v>
+        <v>0.03807289064357931</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1699706230.589675</v>
+        <v>1633281402.600298</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1226854371947124</v>
+        <v>0.1282544261401582</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04941786774350835</v>
+        <v>0.03892212464041103</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1808920203.544542</v>
+        <v>2086414983.478194</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1742748541163315</v>
+        <v>0.1886540364864394</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05207721706373247</v>
+        <v>0.05171342012368856</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2567557200.449381</v>
+        <v>2175723620.872809</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08966542474549462</v>
+        <v>0.1064914158859099</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03923229550998672</v>
+        <v>0.0373132030503293</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3724,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4016263906.902847</v>
+        <v>4893340910.515659</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1004319328071111</v>
+        <v>0.09111193131227228</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04865128929732083</v>
+        <v>0.04966453633953305</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>205</v>
+      </c>
+      <c r="J93" t="n">
+        <v>427</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1974554456.722339</v>
+        <v>1590687829.307762</v>
       </c>
       <c r="F94" t="n">
-        <v>0.104820151107874</v>
+        <v>0.1497112799165492</v>
       </c>
       <c r="G94" t="n">
-        <v>0.043275825434047</v>
+        <v>0.04267065763369118</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3080187951.89316</v>
+        <v>2204539342.56274</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1071765655261002</v>
+        <v>0.09960638347628635</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04842100289706787</v>
+        <v>0.04133971195139433</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2309401601.074255</v>
+        <v>2396836489.799752</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1194196130455512</v>
+        <v>0.1049642243781717</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04116155619546735</v>
+        <v>0.03446798816058423</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3442243930.243306</v>
+        <v>4789203517.997044</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1124756255998377</v>
+        <v>0.1688750955813598</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02225361904066417</v>
+        <v>0.02878226600921682</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>223</v>
+      </c>
+      <c r="J97" t="n">
+        <v>427</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3290682024.827666</v>
+        <v>2412883969.922549</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1126447798823596</v>
+        <v>0.1145298637744108</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03007790559220877</v>
+        <v>0.02694895518221276</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>109</v>
+      </c>
+      <c r="J98" t="n">
+        <v>426</v>
+      </c>
+      <c r="K98" t="n">
+        <v>25.45147438201778</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2783636248.885402</v>
+        <v>2465160342.087611</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08983277825717592</v>
+        <v>0.146041229520029</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02643152787086458</v>
+        <v>0.02827867335770106</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3803757120.864583</v>
+        <v>3694834313.964427</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1464330834867336</v>
+        <v>0.169363832216805</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0258855598965351</v>
+        <v>0.02470747626869552</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>199</v>
+      </c>
+      <c r="J100" t="n">
+        <v>427</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3245004002.766288</v>
+        <v>3528165045.598365</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1818270812859548</v>
+        <v>0.1896690331530911</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04278855491039311</v>
+        <v>0.05247955358092014</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
